--- a/ArtifactMaven/Test Data/TestData.xlsx
+++ b/ArtifactMaven/Test Data/TestData.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TC_Regression" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ObsLogin" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TC_Regression" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,17 +22,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>UserName</t>
+    <t>Super Admin</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>https://safety-red5.kuvrr.com/observer/ </t>
   </si>
   <si>
@@ -39,6 +46,21 @@
   </si>
   <si>
     <t>secret</t>
+  </si>
+  <si>
+    <t>obsckorg@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>observergzb@yopmail.com</t>
+  </si>
+  <si>
+    <t>observernoida@yopmail.com</t>
+  </si>
+  <si>
+    <t>obsorgint@yopmail.com</t>
   </si>
   <si>
     <t>Manul Test Scenario</t>
@@ -367,8 +389,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -422,12 +445,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -477,28 +506,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,18 +572,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,21 +599,70 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://safety-red5.kuvrr.com/observer/ "/>
+    <hyperlink ref="D2" r:id="rId2" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="observergzb@yopmail.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="observernoida@yopmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="obsorgint@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -586,6 +679,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="observergzb@yopmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="observernoida@yopmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="obsorgint@yopmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -594,705 +761,704 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="118.520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7"/>
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
+      <c r="A64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
+      <c r="A68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
+      <c r="A72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
+      <c r="A80" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7"/>
+      <c r="A90" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7"/>
+      <c r="A94" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
+      <c r="A98" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
